--- a/datenRF4/AFL/i=24,42 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L3_S4_i24,42_fremdlüfter_abtriebswelle14.xlsx
+++ b/datenRF4/AFL/i=24,42 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L3_S4_i24,42_fremdlüfter_abtriebswelle14.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="134">
   <si>
     <t>Sequenz</t>
   </si>
@@ -505,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -897,11 +897,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,7 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -998,6 +1047,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,9 +1080,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1337,7 +1394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1348,7 +1405,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1367,115 +1424,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="77" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="70" t="s">
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="36" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1493,7 +1550,7 @@
       <c r="J4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="12" t="s">
@@ -1503,18 +1560,18 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="45" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="48" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -1529,26 +1586,26 @@
       <c r="J5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="44"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="1:19" ht="29">
-      <c r="A6" s="42"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="22"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="21">
         <v>1</v>
       </c>
@@ -1558,20 +1615,20 @@
       <c r="J6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="42"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="44"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="1:19" ht="29.5" thickBot="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -1586,17 +1643,17 @@
       <c r="J7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="42"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="44"/>
+      <c r="S7" s="43"/>
     </row>
     <row r="8" spans="1:19" ht="58">
       <c r="A8" s="6">
@@ -1614,7 +1671,7 @@
       <c r="E8" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="52" t="s">
         <v>126</v>
       </c>
       <c r="G8" s="9"/>
@@ -1627,10 +1684,10 @@
       <c r="J8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="41" t="s">
         <v>118</v>
       </c>
       <c r="M8" s="21">
@@ -1639,13 +1696,13 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="48" t="s">
+      <c r="Q8" s="47" t="s">
         <v>116</v>
       </c>
       <c r="R8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S8" s="44">
+      <c r="S8" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1665,22 +1722,22 @@
       <c r="E9" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="53" t="s">
         <v>102</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="44"/>
+      <c r="S9" s="43"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1">
@@ -1698,129 +1755,161 @@
       <c r="E10" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="53" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="44"/>
+      <c r="S10" s="43"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26" t="s">
+      <c r="A11" s="24">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="53" t="s">
         <v>106</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="41"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="44"/>
+      <c r="S11" s="43"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="29" t="s">
+      <c r="A12" s="24">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <v>12140</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="41"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="44"/>
+      <c r="S12" s="43"/>
     </row>
     <row r="13" spans="1:19" ht="15" thickBot="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="38" t="s">
+      <c r="A13" s="82">
+        <v>9</v>
+      </c>
+      <c r="B13" s="83">
+        <v>2</v>
+      </c>
+      <c r="C13" s="84">
+        <v>1</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="41"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="44"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62" t="s">
+      <c r="A14" s="59">
+        <v>1</v>
+      </c>
+      <c r="B14" s="60">
+        <v>3</v>
+      </c>
+      <c r="C14" s="60">
+        <v>1</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="63">
         <v>11132</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="44"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="42"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -1829,24 +1918,24 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
-      <c r="S15" s="44"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" spans="1:19" ht="43.5">
-      <c r="A16" s="42"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="21">
         <v>3</v>
       </c>
@@ -1856,26 +1945,26 @@
       <c r="J16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
-      <c r="S16" s="44"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="1:19" ht="43.5">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="22"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="21">
         <v>4</v>
       </c>
@@ -1885,20 +1974,20 @@
       <c r="J17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="42"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="44"/>
+      <c r="S17" s="43"/>
     </row>
     <row r="18" spans="1:19" ht="43.5">
-      <c r="A18" s="42"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -1913,26 +2002,26 @@
       <c r="J18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="42"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="44"/>
+      <c r="S18" s="43"/>
     </row>
     <row r="19" spans="1:19" ht="43.5">
-      <c r="A19" s="42"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="21">
         <v>5</v>
       </c>
@@ -1942,20 +2031,20 @@
       <c r="J19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="42"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
-      <c r="S19" s="44"/>
+      <c r="S19" s="43"/>
     </row>
     <row r="20" spans="1:19" ht="29">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -1970,26 +2059,26 @@
       <c r="J20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="42"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="44"/>
+      <c r="S20" s="43"/>
     </row>
     <row r="21" spans="1:19" ht="29">
-      <c r="A21" s="42"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="22"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="21">
         <v>6</v>
       </c>
@@ -1999,20 +2088,20 @@
       <c r="J21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="42"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="44"/>
+      <c r="S21" s="43"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="42"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -2027,26 +2116,26 @@
       <c r="J22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="44" t="s">
+      <c r="K22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
-      <c r="S22" s="44"/>
+      <c r="S22" s="43"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="42"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="22"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="21">
         <v>7</v>
       </c>
@@ -2056,20 +2145,20 @@
       <c r="J23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="42"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="44"/>
+      <c r="S23" s="43"/>
     </row>
     <row r="24" spans="1:19" ht="43.5">
-      <c r="A24" s="42"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -2084,26 +2173,26 @@
       <c r="J24" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="K24" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="42"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="44"/>
+      <c r="S24" s="43"/>
     </row>
     <row r="25" spans="1:19" ht="44" thickBot="1">
-      <c r="A25" s="42"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="21">
         <v>9</v>
       </c>
@@ -2113,17 +2202,17 @@
       <c r="J25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="42"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
-      <c r="S25" s="44"/>
+      <c r="S25" s="43"/>
     </row>
     <row r="26" spans="1:19" ht="58">
       <c r="A26" s="6">
@@ -2141,7 +2230,7 @@
       <c r="E26" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="52" t="s">
         <v>126</v>
       </c>
       <c r="G26" s="9"/>
@@ -2154,10 +2243,10 @@
       <c r="J26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="41" t="s">
         <v>118</v>
       </c>
       <c r="M26" s="21">
@@ -2166,13 +2255,13 @@
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
-      <c r="Q26" s="48" t="s">
+      <c r="Q26" s="47" t="s">
         <v>116</v>
       </c>
       <c r="R26" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="43">
         <v>1</v>
       </c>
     </row>
@@ -2192,22 +2281,22 @@
       <c r="E27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="53" t="s">
         <v>102</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
-      <c r="S27" s="44"/>
+      <c r="S27" s="43"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1">
@@ -2225,162 +2314,202 @@
       <c r="E28" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="53" t="s">
         <v>104</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="44"/>
+      <c r="S28" s="43"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26" t="s">
+      <c r="A29" s="24">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="53" t="s">
         <v>106</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="41"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
-      <c r="S29" s="44"/>
+      <c r="S29" s="43"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="29" t="s">
+      <c r="A30" s="24">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="26">
         <v>12140</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="41"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
-      <c r="S30" s="44"/>
+      <c r="S30" s="43"/>
     </row>
     <row r="31" spans="1:19" ht="15" thickBot="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="38" t="s">
+      <c r="A31" s="10">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="41"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="44"/>
+      <c r="S31" s="43"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="65" t="s">
+      <c r="A32" s="6">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="66">
         <v>11132</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="41"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
-      <c r="S32" s="44"/>
+      <c r="S32" s="43"/>
     </row>
     <row r="33" spans="1:19" ht="15" thickBot="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="16">
+        <v>2</v>
+      </c>
+      <c r="B33" s="17">
+        <v>3</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="E33" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="70">
         <v>14131</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="41"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
-      <c r="S33" s="44"/>
+      <c r="S33" s="43"/>
     </row>
     <row r="34" spans="1:19" ht="44" thickBot="1">
-      <c r="A34" s="42"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="21">
         <v>10</v>
       </c>
@@ -2390,17 +2519,17 @@
       <c r="J34" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K34" s="43" t="s">
+      <c r="K34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="42"/>
+      <c r="L34" s="41"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
-      <c r="S34" s="44"/>
+      <c r="S34" s="43"/>
     </row>
     <row r="35" spans="1:19" ht="58">
       <c r="A35" s="6">
@@ -2418,7 +2547,7 @@
       <c r="E35" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="52" t="s">
         <v>126</v>
       </c>
       <c r="G35" s="9"/>
@@ -2431,10 +2560,10 @@
       <c r="J35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="K35" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="42" t="s">
+      <c r="L35" s="41" t="s">
         <v>118</v>
       </c>
       <c r="M35" s="21">
@@ -2443,13 +2572,13 @@
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
-      <c r="Q35" s="48" t="s">
+      <c r="Q35" s="47" t="s">
         <v>116</v>
       </c>
       <c r="R35" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S35" s="44"/>
+      <c r="S35" s="43"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1">
@@ -2467,22 +2596,22 @@
       <c r="E36" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="53" t="s">
         <v>102</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="41"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
-      <c r="S36" s="44"/>
+      <c r="S36" s="43"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1">
@@ -2500,162 +2629,202 @@
       <c r="E37" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="53" t="s">
         <v>104</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="41"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
-      <c r="S37" s="44"/>
+      <c r="S37" s="43"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26" t="s">
+      <c r="A38" s="24">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="53" t="s">
         <v>106</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="41"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
-      <c r="S38" s="44"/>
+      <c r="S38" s="43"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="29" t="s">
+      <c r="A39" s="24">
+        <v>8</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="26">
         <v>12140</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="41"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
-      <c r="S39" s="44"/>
+      <c r="S39" s="43"/>
     </row>
     <row r="40" spans="1:19" ht="15" thickBot="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="28" t="s">
+      <c r="A40" s="1">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="53" t="s">
         <v>108</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="41"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
-      <c r="S40" s="44"/>
+      <c r="S40" s="43"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="65" t="s">
+      <c r="A41" s="6">
+        <v>1</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="66">
         <v>11132</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="41"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
-      <c r="S41" s="44"/>
+      <c r="S41" s="43"/>
     </row>
     <row r="42" spans="1:19" ht="15" thickBot="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="10">
+        <v>2</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E42" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="81">
+      <c r="G42" s="70">
         <v>14131</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="41"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
-      <c r="S42" s="44"/>
+      <c r="S42" s="43"/>
     </row>
     <row r="43" spans="1:19" ht="58.5" thickBot="1">
-      <c r="A43" s="42"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
       <c r="H43" s="21">
         <v>11</v>
       </c>
@@ -2665,17 +2834,17 @@
       <c r="J43" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="43" t="s">
+      <c r="K43" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="42"/>
+      <c r="L43" s="41"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
-      <c r="S43" s="44"/>
+      <c r="S43" s="43"/>
     </row>
     <row r="44" spans="1:19" ht="58">
       <c r="A44" s="6">
@@ -2693,7 +2862,7 @@
       <c r="E44" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="F44" s="52" t="s">
         <v>126</v>
       </c>
       <c r="G44" s="9"/>
@@ -2706,10 +2875,10 @@
       <c r="J44" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="43" t="s">
+      <c r="K44" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="42" t="s">
+      <c r="L44" s="41" t="s">
         <v>118</v>
       </c>
       <c r="M44" s="21">
@@ -2718,13 +2887,13 @@
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
-      <c r="Q44" s="48" t="s">
+      <c r="Q44" s="47" t="s">
         <v>116</v>
       </c>
       <c r="R44" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S44" s="44"/>
+      <c r="S44" s="43"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="1">
@@ -2742,22 +2911,22 @@
       <c r="E45" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="53" t="s">
         <v>102</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="41"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
-      <c r="S45" s="44"/>
+      <c r="S45" s="43"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1">
@@ -2775,156 +2944,196 @@
       <c r="E46" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="53" t="s">
         <v>104</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="41"/>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
-      <c r="S46" s="44"/>
+      <c r="S46" s="43"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26" t="s">
+      <c r="A47" s="24">
+        <v>7</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="F47" s="53" t="s">
         <v>106</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="41"/>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
-      <c r="S47" s="44"/>
+      <c r="S47" s="43"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="29" t="s">
+      <c r="A48" s="24">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="26">
         <v>12140</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="41"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
-      <c r="S48" s="44"/>
+      <c r="S48" s="43"/>
     </row>
     <row r="49" spans="1:19" ht="15" thickBot="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="28" t="s">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="84">
+        <v>1</v>
+      </c>
+      <c r="D49" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F49" s="54" t="s">
+      <c r="F49" s="53" t="s">
         <v>108</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="41"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
-      <c r="S49" s="44"/>
+      <c r="S49" s="43"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="65" t="s">
+      <c r="A50" s="6">
+        <v>1</v>
+      </c>
+      <c r="B50" s="8">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="66">
         <v>11132</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="41"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
       <c r="R50" s="21"/>
-      <c r="S50" s="44"/>
+      <c r="S50" s="43"/>
     </row>
     <row r="51" spans="1:19" ht="15" thickBot="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="10">
+        <v>2</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E51" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="82" t="s">
+      <c r="F51" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="81">
+      <c r="G51" s="70">
         <v>14131</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="41"/>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="21"/>
-      <c r="S51" s="44"/>
+      <c r="S51" s="43"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="42"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -2933,24 +3142,24 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="41"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
-      <c r="S52" s="44"/>
+      <c r="S52" s="43"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="42"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
       <c r="H53" s="21">
         <v>12</v>
       </c>
@@ -2960,20 +3169,20 @@
       <c r="J53" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K53" s="43" t="s">
+      <c r="K53" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L53" s="42"/>
+      <c r="L53" s="41"/>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
-      <c r="S53" s="44"/>
+      <c r="S53" s="43"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="42"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -2988,20 +3197,20 @@
       <c r="J54" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K54" s="43" t="s">
+      <c r="K54" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L54" s="42"/>
+      <c r="L54" s="41"/>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
-      <c r="S54" s="44"/>
+      <c r="S54" s="43"/>
     </row>
     <row r="55" spans="1:19" ht="29">
-      <c r="A55" s="42"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -3016,20 +3225,20 @@
       <c r="J55" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K55" s="43" t="s">
+      <c r="K55" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="42"/>
+      <c r="L55" s="41"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21"/>
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
-      <c r="S55" s="44"/>
+      <c r="S55" s="43"/>
     </row>
     <row r="56" spans="1:19" ht="29">
-      <c r="A56" s="42"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -3044,20 +3253,20 @@
       <c r="J56" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K56" s="43" t="s">
+      <c r="K56" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="42"/>
+      <c r="L56" s="41"/>
       <c r="M56" s="21"/>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
       <c r="R56" s="21"/>
-      <c r="S56" s="44"/>
+      <c r="S56" s="43"/>
     </row>
     <row r="57" spans="1:19" ht="29">
-      <c r="A57" s="42"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
@@ -3072,20 +3281,20 @@
       <c r="J57" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="43" t="s">
+      <c r="K57" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="42"/>
+      <c r="L57" s="41"/>
       <c r="M57" s="21"/>
       <c r="N57" s="21"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
-      <c r="S57" s="44"/>
+      <c r="S57" s="43"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="42"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
@@ -3094,18 +3303,18 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="41"/>
       <c r="M58" s="21"/>
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
-      <c r="S58" s="44"/>
+      <c r="S58" s="43"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="42"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
@@ -3114,18 +3323,18 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="41"/>
       <c r="M59" s="21"/>
       <c r="N59" s="21"/>
       <c r="O59" s="21"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="21"/>
       <c r="R59" s="21"/>
-      <c r="S59" s="44"/>
+      <c r="S59" s="43"/>
     </row>
     <row r="60" spans="1:19" ht="29">
-      <c r="A60" s="42"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
@@ -3140,20 +3349,20 @@
       <c r="J60" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K60" s="43" t="s">
+      <c r="K60" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L60" s="42"/>
+      <c r="L60" s="41"/>
       <c r="M60" s="21"/>
       <c r="N60" s="21"/>
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
-      <c r="S60" s="44"/>
+      <c r="S60" s="43"/>
     </row>
     <row r="61" spans="1:19" ht="29.5" thickBot="1">
-      <c r="A61" s="42"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -3168,17 +3377,17 @@
       <c r="J61" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K61" s="43" t="s">
+      <c r="K61" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L61" s="42"/>
+      <c r="L61" s="41"/>
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
       <c r="O61" s="21"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
-      <c r="S61" s="44"/>
+      <c r="S61" s="43"/>
     </row>
     <row r="62" spans="1:19" ht="58">
       <c r="A62" s="6">
@@ -3196,7 +3405,7 @@
       <c r="E62" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F62" s="53" t="s">
+      <c r="F62" s="52" t="s">
         <v>126</v>
       </c>
       <c r="G62" s="9"/>
@@ -3209,10 +3418,10 @@
       <c r="J62" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K62" s="43" t="s">
+      <c r="K62" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L62" s="42" t="s">
+      <c r="L62" s="41" t="s">
         <v>118</v>
       </c>
       <c r="M62" s="21">
@@ -3221,13 +3430,13 @@
       <c r="N62" s="21"/>
       <c r="O62" s="21"/>
       <c r="P62" s="21"/>
-      <c r="Q62" s="48" t="s">
+      <c r="Q62" s="47" t="s">
         <v>116</v>
       </c>
       <c r="R62" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S62" s="44">
+      <c r="S62" s="43">
         <v>1</v>
       </c>
     </row>
@@ -3244,27 +3453,27 @@
       <c r="D63" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="68" t="s">
+      <c r="F63" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="G63" s="69">
+      <c r="G63" s="68">
         <v>12140</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="41"/>
       <c r="M63" s="21"/>
       <c r="N63" s="21"/>
       <c r="O63" s="21"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
-      <c r="S63" s="44"/>
+      <c r="S63" s="43"/>
     </row>
     <row r="64" spans="1:19" ht="15" thickBot="1">
       <c r="A64" s="10">
@@ -3279,28 +3488,28 @@
       <c r="D64" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="57" t="s">
+      <c r="F64" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="59"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="41"/>
       <c r="M64" s="21"/>
       <c r="N64" s="21"/>
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
       <c r="Q64" s="21"/>
       <c r="R64" s="21"/>
-      <c r="S64" s="44"/>
+      <c r="S64" s="43"/>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="42"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
@@ -3309,18 +3518,18 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="41"/>
       <c r="M65" s="21"/>
       <c r="N65" s="21"/>
       <c r="O65" s="21"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
       <c r="R65" s="21"/>
-      <c r="S65" s="44"/>
+      <c r="S65" s="43"/>
     </row>
     <row r="66" spans="1:19" ht="29">
-      <c r="A66" s="42"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
@@ -3335,20 +3544,20 @@
       <c r="J66" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="K66" s="43" t="s">
+      <c r="K66" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="42"/>
+      <c r="L66" s="41"/>
       <c r="M66" s="21"/>
       <c r="N66" s="21"/>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
-      <c r="S66" s="44"/>
+      <c r="S66" s="43"/>
     </row>
     <row r="67" spans="1:19" ht="29">
-      <c r="A67" s="42"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
@@ -3363,20 +3572,20 @@
       <c r="J67" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K67" s="43" t="s">
+      <c r="K67" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L67" s="42"/>
+      <c r="L67" s="41"/>
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
-      <c r="S67" s="44"/>
+      <c r="S67" s="43"/>
     </row>
     <row r="68" spans="1:19" ht="29">
-      <c r="A68" s="42"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
@@ -3391,20 +3600,20 @@
       <c r="J68" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K68" s="43" t="s">
+      <c r="K68" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="42"/>
+      <c r="L68" s="41"/>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
-      <c r="S68" s="44"/>
+      <c r="S68" s="43"/>
     </row>
     <row r="69" spans="1:19" ht="29">
-      <c r="A69" s="42"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
@@ -3419,20 +3628,20 @@
       <c r="J69" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K69" s="43" t="s">
+      <c r="K69" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="42"/>
+      <c r="L69" s="41"/>
       <c r="M69" s="21"/>
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="21"/>
       <c r="R69" s="21"/>
-      <c r="S69" s="44"/>
+      <c r="S69" s="43"/>
     </row>
     <row r="70" spans="1:19" ht="29">
-      <c r="A70" s="42"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -3447,20 +3656,20 @@
       <c r="J70" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K70" s="43" t="s">
+      <c r="K70" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="42"/>
+      <c r="L70" s="41"/>
       <c r="M70" s="21"/>
       <c r="N70" s="21"/>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
-      <c r="S70" s="44"/>
+      <c r="S70" s="43"/>
     </row>
     <row r="71" spans="1:19" ht="29">
-      <c r="A71" s="42"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
@@ -3475,20 +3684,20 @@
       <c r="J71" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="K71" s="43" t="s">
+      <c r="K71" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L71" s="42"/>
+      <c r="L71" s="41"/>
       <c r="M71" s="21"/>
       <c r="N71" s="21"/>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
-      <c r="S71" s="44"/>
+      <c r="S71" s="43"/>
     </row>
     <row r="72" spans="1:19" ht="43.5">
-      <c r="A72" s="42"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
@@ -3503,20 +3712,20 @@
       <c r="J72" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K72" s="43" t="s">
+      <c r="K72" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="42"/>
+      <c r="L72" s="41"/>
       <c r="M72" s="21"/>
       <c r="N72" s="21"/>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
       <c r="Q72" s="21"/>
       <c r="R72" s="21"/>
-      <c r="S72" s="44"/>
+      <c r="S72" s="43"/>
     </row>
     <row r="73" spans="1:19" ht="43.5">
-      <c r="A73" s="42"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
@@ -3531,26 +3740,26 @@
       <c r="J73" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K73" s="43" t="s">
+      <c r="K73" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="42"/>
+      <c r="L73" s="41"/>
       <c r="M73" s="21"/>
       <c r="N73" s="21"/>
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
       <c r="Q73" s="21"/>
       <c r="R73" s="21"/>
-      <c r="S73" s="44"/>
+      <c r="S73" s="43"/>
     </row>
     <row r="74" spans="1:19" ht="43.5">
-      <c r="A74" s="42"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
       <c r="E74" s="23"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
       <c r="H74" s="21">
         <v>14</v>
       </c>
@@ -3560,20 +3769,20 @@
       <c r="J74" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="K74" s="43" t="s">
+      <c r="K74" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="42"/>
+      <c r="L74" s="41"/>
       <c r="M74" s="21"/>
       <c r="N74" s="21"/>
       <c r="O74" s="21"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
       <c r="R74" s="21"/>
-      <c r="S74" s="44"/>
+      <c r="S74" s="43"/>
     </row>
     <row r="75" spans="1:19" ht="43.5">
-      <c r="A75" s="42"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
@@ -3588,20 +3797,20 @@
       <c r="J75" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K75" s="43" t="s">
+      <c r="K75" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L75" s="42"/>
+      <c r="L75" s="41"/>
       <c r="M75" s="21"/>
       <c r="N75" s="21"/>
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
-      <c r="S75" s="44"/>
+      <c r="S75" s="43"/>
     </row>
     <row r="76" spans="1:19" ht="44" thickBot="1">
-      <c r="A76" s="42"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
@@ -3616,17 +3825,17 @@
       <c r="J76" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K76" s="43" t="s">
+      <c r="K76" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="42"/>
+      <c r="L76" s="41"/>
       <c r="M76" s="21"/>
       <c r="N76" s="21"/>
       <c r="O76" s="21"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
-      <c r="S76" s="44"/>
+      <c r="S76" s="43"/>
     </row>
     <row r="77" spans="1:19" ht="58">
       <c r="A77" s="6">
@@ -3644,7 +3853,7 @@
       <c r="E77" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F77" s="53" t="s">
+      <c r="F77" s="52" t="s">
         <v>126</v>
       </c>
       <c r="G77" s="9"/>
@@ -3657,10 +3866,10 @@
       <c r="J77" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K77" s="43" t="s">
+      <c r="K77" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L77" s="42" t="s">
+      <c r="L77" s="41" t="s">
         <v>118</v>
       </c>
       <c r="M77" s="21">
@@ -3669,13 +3878,13 @@
       <c r="N77" s="21"/>
       <c r="O77" s="21"/>
       <c r="P77" s="21"/>
-      <c r="Q77" s="48" t="s">
+      <c r="Q77" s="47" t="s">
         <v>116</v>
       </c>
       <c r="R77" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S77" s="44">
+      <c r="S77" s="43">
         <v>1</v>
       </c>
     </row>
@@ -3692,27 +3901,27 @@
       <c r="D78" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="F78" s="68" t="s">
+      <c r="F78" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="69">
+      <c r="G78" s="68">
         <v>12140</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="41"/>
       <c r="M78" s="21"/>
       <c r="N78" s="21"/>
       <c r="O78" s="21"/>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
-      <c r="S78" s="44"/>
+      <c r="S78" s="43"/>
     </row>
     <row r="79" spans="1:19" ht="15" thickBot="1">
       <c r="A79" s="10">
@@ -3727,28 +3936,28 @@
       <c r="D79" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="57" t="s">
+      <c r="F79" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="G79" s="59"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="41"/>
       <c r="M79" s="21"/>
       <c r="N79" s="21"/>
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="21"/>
       <c r="R79" s="21"/>
-      <c r="S79" s="44"/>
+      <c r="S79" s="43"/>
     </row>
     <row r="80" spans="1:19" ht="43.5">
-      <c r="A80" s="42"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
@@ -3763,20 +3972,20 @@
       <c r="J80" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="43" t="s">
+      <c r="K80" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L80" s="42"/>
+      <c r="L80" s="41"/>
       <c r="M80" s="21"/>
       <c r="N80" s="21"/>
       <c r="O80" s="21"/>
       <c r="P80" s="21"/>
       <c r="Q80" s="21"/>
       <c r="R80" s="21"/>
-      <c r="S80" s="44"/>
+      <c r="S80" s="43"/>
     </row>
     <row r="81" spans="1:19" ht="43.5">
-      <c r="A81" s="42"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
@@ -3791,20 +4000,20 @@
       <c r="J81" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K81" s="43" t="s">
+      <c r="K81" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L81" s="42"/>
+      <c r="L81" s="41"/>
       <c r="M81" s="21"/>
       <c r="N81" s="21"/>
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
       <c r="Q81" s="21"/>
       <c r="R81" s="21"/>
-      <c r="S81" s="44"/>
+      <c r="S81" s="43"/>
     </row>
     <row r="82" spans="1:19" ht="43.5">
-      <c r="A82" s="42"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -3819,20 +4028,20 @@
       <c r="J82" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K82" s="43" t="s">
+      <c r="K82" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L82" s="42"/>
+      <c r="L82" s="41"/>
       <c r="M82" s="21"/>
       <c r="N82" s="21"/>
       <c r="O82" s="21"/>
       <c r="P82" s="21"/>
       <c r="Q82" s="21"/>
       <c r="R82" s="21"/>
-      <c r="S82" s="44"/>
+      <c r="S82" s="43"/>
     </row>
     <row r="83" spans="1:19" ht="43.5">
-      <c r="A83" s="42"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
@@ -3847,20 +4056,20 @@
       <c r="J83" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K83" s="43" t="s">
+      <c r="K83" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L83" s="42"/>
+      <c r="L83" s="41"/>
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
       <c r="Q83" s="21"/>
       <c r="R83" s="21"/>
-      <c r="S83" s="44"/>
+      <c r="S83" s="43"/>
     </row>
     <row r="84" spans="1:19" ht="43.5">
-      <c r="A84" s="42"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
@@ -3875,20 +4084,20 @@
       <c r="J84" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K84" s="43" t="s">
+      <c r="K84" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L84" s="42"/>
+      <c r="L84" s="41"/>
       <c r="M84" s="21"/>
       <c r="N84" s="21"/>
       <c r="O84" s="21"/>
       <c r="P84" s="21"/>
       <c r="Q84" s="21"/>
       <c r="R84" s="21"/>
-      <c r="S84" s="44"/>
+      <c r="S84" s="43"/>
     </row>
     <row r="85" spans="1:19" ht="43.5">
-      <c r="A85" s="42"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
@@ -3903,17 +4112,17 @@
       <c r="J85" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K85" s="43" t="s">
+      <c r="K85" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L85" s="42"/>
+      <c r="L85" s="41"/>
       <c r="M85" s="21"/>
       <c r="N85" s="21"/>
       <c r="O85" s="21"/>
       <c r="P85" s="21"/>
       <c r="Q85" s="21"/>
       <c r="R85" s="21"/>
-      <c r="S85" s="44"/>
+      <c r="S85" s="43"/>
     </row>
     <row r="86" spans="1:19" ht="44" thickBot="1">
       <c r="A86" s="14"/>
@@ -3930,7 +4139,7 @@
       <c r="J86" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K86" s="45" t="s">
+      <c r="K86" s="44" t="s">
         <v>10</v>
       </c>
       <c r="L86" s="14"/>
@@ -3940,7 +4149,7 @@
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
-      <c r="S86" s="49"/>
+      <c r="S86" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
